--- a/output_xlsx/model-2-21-07-2021.xlsx
+++ b/output_xlsx/model-2-21-07-2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>sepeda motor</t>
   </si>
@@ -40,13 +40,7 @@
     <t>2021-07-21</t>
   </si>
   <si>
-    <t>12:47:00</t>
-  </si>
-  <si>
-    <t>12:51:00</t>
-  </si>
-  <si>
-    <t>12:52:00</t>
+    <t>15:39:00</t>
   </si>
 </sst>
 </file>
@@ -378,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,40 +412,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
